--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H2">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I2">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J2">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N2">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O2">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P2">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q2">
-        <v>1.373395956230131</v>
+        <v>1.422200756431</v>
       </c>
       <c r="R2">
-        <v>1.373395956230131</v>
+        <v>5.688803025724001</v>
       </c>
       <c r="S2">
-        <v>0.007981748872628489</v>
+        <v>0.007862597405602868</v>
       </c>
       <c r="T2">
-        <v>0.007981748872628489</v>
+        <v>0.00449285148226511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H3">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I3">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J3">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N3">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P3">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q3">
-        <v>6.029390281938985</v>
+        <v>6.327493665366666</v>
       </c>
       <c r="R3">
-        <v>6.029390281938985</v>
+        <v>37.9649619922</v>
       </c>
       <c r="S3">
-        <v>0.0350409354761779</v>
+        <v>0.03498137309540535</v>
       </c>
       <c r="T3">
-        <v>0.0350409354761779</v>
+        <v>0.02998362484858336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H4">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I4">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J4">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N4">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O4">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P4">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q4">
-        <v>10.50438925075324</v>
+        <v>10.93832029264933</v>
       </c>
       <c r="R4">
-        <v>10.50438925075324</v>
+        <v>65.62992175589599</v>
       </c>
       <c r="S4">
-        <v>0.06104823352618161</v>
+        <v>0.06047220012065183</v>
       </c>
       <c r="T4">
-        <v>0.06104823352618161</v>
+        <v>0.05183260694887457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H5">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I5">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J5">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N5">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O5">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P5">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q5">
-        <v>11.25847582660032</v>
+        <v>11.323674717096</v>
       </c>
       <c r="R5">
-        <v>11.25847582660032</v>
+        <v>67.942048302576</v>
       </c>
       <c r="S5">
-        <v>0.06543074947093012</v>
+        <v>0.06260262135984131</v>
       </c>
       <c r="T5">
-        <v>0.06543074947093012</v>
+        <v>0.05365865737379919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H6">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I6">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J6">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N6">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O6">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P6">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q6">
-        <v>1.597243270869778</v>
+        <v>1.944440587192666</v>
       </c>
       <c r="R6">
-        <v>1.597243270869778</v>
+        <v>11.666643523156</v>
       </c>
       <c r="S6">
-        <v>0.009282679637103912</v>
+        <v>0.01074978581404777</v>
       </c>
       <c r="T6">
-        <v>0.009282679637103912</v>
+        <v>0.009213976368851188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H7">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I7">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J7">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N7">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O7">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P7">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q7">
-        <v>12.51673026508116</v>
+        <v>12.59259124606</v>
       </c>
       <c r="R7">
-        <v>12.51673026508116</v>
+        <v>50.37036498424001</v>
       </c>
       <c r="S7">
-        <v>0.07274333176030263</v>
+        <v>0.06961779116863545</v>
       </c>
       <c r="T7">
-        <v>0.07274333176030263</v>
+        <v>0.03978105199957697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H8">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I8">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J8">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N8">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O8">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P8">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q8">
-        <v>0.7178095055234329</v>
+        <v>0.7502001762103334</v>
       </c>
       <c r="R8">
-        <v>0.7178095055234329</v>
+        <v>4.501201057262</v>
       </c>
       <c r="S8">
-        <v>0.004171684928504072</v>
+        <v>0.004147460850714543</v>
       </c>
       <c r="T8">
-        <v>0.004171684928504072</v>
+        <v>0.003554917923972081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H9">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I9">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J9">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N9">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P9">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q9">
-        <v>3.151278869908955</v>
+        <v>3.337705201788889</v>
       </c>
       <c r="R9">
-        <v>3.151278869908955</v>
+        <v>30.0393468161</v>
       </c>
       <c r="S9">
-        <v>0.01831424976397637</v>
+        <v>0.01845241056270365</v>
       </c>
       <c r="T9">
-        <v>0.01831424976397637</v>
+        <v>0.02372420406519775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H10">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I10">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J10">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N10">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O10">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P10">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q10">
-        <v>5.490150469501889</v>
+        <v>5.769881483949778</v>
       </c>
       <c r="R10">
-        <v>5.490150469501889</v>
+        <v>51.928933355548</v>
       </c>
       <c r="S10">
-        <v>0.03190704189984137</v>
+        <v>0.03189862962820084</v>
       </c>
       <c r="T10">
-        <v>0.03190704189984137</v>
+        <v>0.04101196405358528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H11">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I11">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J11">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N11">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O11">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P11">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q11">
-        <v>5.884276074485067</v>
+        <v>5.973153037432</v>
       </c>
       <c r="R11">
-        <v>5.884276074485067</v>
+        <v>53.758377336888</v>
       </c>
       <c r="S11">
-        <v>0.03419757697021066</v>
+        <v>0.03302241076937598</v>
       </c>
       <c r="T11">
-        <v>0.03419757697021066</v>
+        <v>0.0424568058008065</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H12">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I12">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J12">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N12">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O12">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P12">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q12">
-        <v>0.8348039742382579</v>
+        <v>1.025677749464222</v>
       </c>
       <c r="R12">
-        <v>0.8348039742382579</v>
+        <v>9.231099745178</v>
       </c>
       <c r="S12">
-        <v>0.004851620284751655</v>
+        <v>0.00567043096795965</v>
       </c>
       <c r="T12">
-        <v>0.004851620284751655</v>
+        <v>0.007290454597482176</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H13">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I13">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J13">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N13">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O13">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P13">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q13">
-        <v>6.541906521270261</v>
+        <v>6.642496939353334</v>
       </c>
       <c r="R13">
-        <v>6.541906521270261</v>
+        <v>39.85498163612</v>
       </c>
       <c r="S13">
-        <v>0.03801951998192749</v>
+        <v>0.03672285995202843</v>
       </c>
       <c r="T13">
-        <v>0.03801951998192749</v>
+        <v>0.03147630749558281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.23210112972607</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H14">
-        <v>1.23210112972607</v>
+        <v>3.906691</v>
       </c>
       <c r="I14">
-        <v>0.1511481187254225</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J14">
-        <v>0.1511481187254225</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N14">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O14">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P14">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q14">
-        <v>0.8253016768827323</v>
+        <v>0.8980746848861668</v>
       </c>
       <c r="R14">
-        <v>0.8253016768827323</v>
+        <v>5.388448109317001</v>
       </c>
       <c r="S14">
-        <v>0.004796395896722263</v>
+        <v>0.004964980967345007</v>
       </c>
       <c r="T14">
-        <v>0.004796395896722263</v>
+        <v>0.004255639888669275</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.23210112972607</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H15">
-        <v>1.23210112972607</v>
+        <v>3.906691</v>
       </c>
       <c r="I15">
-        <v>0.1511481187254225</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J15">
-        <v>0.1511481187254225</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N15">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O15">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P15">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q15">
-        <v>3.623183749516508</v>
+        <v>3.995611627927778</v>
       </c>
       <c r="R15">
-        <v>3.623183749516508</v>
+        <v>35.96050465135001</v>
       </c>
       <c r="S15">
-        <v>0.02105681371555125</v>
+        <v>0.02208962797796527</v>
       </c>
       <c r="T15">
-        <v>0.02105681371555125</v>
+        <v>0.02840056263070512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.23210112972607</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H16">
-        <v>1.23210112972607</v>
+        <v>3.906691</v>
       </c>
       <c r="I16">
-        <v>0.1511481187254225</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J16">
-        <v>0.1511481187254225</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N16">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O16">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P16">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q16">
-        <v>6.312302015998468</v>
+        <v>6.907202450557556</v>
       </c>
       <c r="R16">
-        <v>6.312302015998468</v>
+        <v>62.16482205501801</v>
       </c>
       <c r="S16">
-        <v>0.03668513022142897</v>
+        <v>0.03818627702323434</v>
       </c>
       <c r="T16">
-        <v>0.03668513022142897</v>
+        <v>0.04909597179787903</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.23210112972607</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H17">
-        <v>1.23210112972607</v>
+        <v>3.906691</v>
       </c>
       <c r="I17">
-        <v>0.1511481187254225</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J17">
-        <v>0.1511481187254225</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N17">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O17">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P17">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q17">
-        <v>6.765448038992195</v>
+        <v>7.150541551412</v>
       </c>
       <c r="R17">
-        <v>6.765448038992195</v>
+        <v>64.35487396270801</v>
       </c>
       <c r="S17">
-        <v>0.03931867355010919</v>
+        <v>0.03953157048789347</v>
       </c>
       <c r="T17">
-        <v>0.03931867355010919</v>
+        <v>0.0508256112167883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.23210112972607</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H18">
-        <v>1.23210112972607</v>
+        <v>3.906691</v>
       </c>
       <c r="I18">
-        <v>0.1511481187254225</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J18">
-        <v>0.1511481187254225</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N18">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O18">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P18">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q18">
-        <v>0.9598160995441321</v>
+        <v>1.227852579691445</v>
       </c>
       <c r="R18">
-        <v>0.9598160995441321</v>
+        <v>11.050673217223</v>
       </c>
       <c r="S18">
-        <v>0.00557815176003281</v>
+        <v>0.006788148905061506</v>
       </c>
       <c r="T18">
-        <v>0.00557815176003281</v>
+        <v>0.008727500903005688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.23210112972607</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H19">
-        <v>1.23210112972607</v>
+        <v>3.906691</v>
       </c>
       <c r="I19">
-        <v>0.1511481187254225</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J19">
-        <v>0.1511481187254225</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N19">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O19">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P19">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q19">
-        <v>7.521558826498677</v>
+        <v>7.951822106736667</v>
       </c>
       <c r="R19">
-        <v>7.521558826498677</v>
+        <v>47.71093264042001</v>
       </c>
       <c r="S19">
-        <v>0.04371295358157803</v>
+        <v>0.04396142779669277</v>
       </c>
       <c r="T19">
-        <v>0.04371295358157803</v>
+        <v>0.03768070953845005</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.3613634884419</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H20">
-        <v>1.3613634884419</v>
+        <v>4.235443</v>
       </c>
       <c r="I20">
-        <v>0.1670053903977991</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J20">
-        <v>0.1670053903977991</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N20">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O20">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P20">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q20">
-        <v>0.9118858369262425</v>
+        <v>0.9736485781901667</v>
       </c>
       <c r="R20">
-        <v>0.9118858369262425</v>
+        <v>5.841891469141001</v>
       </c>
       <c r="S20">
-        <v>0.005299596025337591</v>
+        <v>0.005382789138755698</v>
       </c>
       <c r="T20">
-        <v>0.005299596025337591</v>
+        <v>0.004613756290677983</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.3613634884419</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H21">
-        <v>1.3613634884419</v>
+        <v>4.235443</v>
       </c>
       <c r="I21">
-        <v>0.1670053903977991</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J21">
-        <v>0.1670053903977991</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N21">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O21">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P21">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q21">
-        <v>4.003299688236159</v>
+        <v>4.331846388727778</v>
       </c>
       <c r="R21">
-        <v>4.003299688236159</v>
+        <v>38.98661749855</v>
       </c>
       <c r="S21">
-        <v>0.02326592897585227</v>
+        <v>0.023948492520109</v>
       </c>
       <c r="T21">
-        <v>0.02326592897585227</v>
+        <v>0.03079049870856988</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.3613634884419</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H22">
-        <v>1.3613634884419</v>
+        <v>4.235443</v>
       </c>
       <c r="I22">
-        <v>0.1670053903977991</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J22">
-        <v>0.1670053903977991</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N22">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O22">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P22">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q22">
-        <v>6.974539090398405</v>
+        <v>7.488450524701555</v>
       </c>
       <c r="R22">
-        <v>6.974539090398405</v>
+        <v>67.39605472231401</v>
       </c>
       <c r="S22">
-        <v>0.04053384551582494</v>
+        <v>0.04139969086731424</v>
       </c>
       <c r="T22">
-        <v>0.04053384551582494</v>
+        <v>0.05322744749444585</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.3613634884419</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H23">
-        <v>1.3613634884419</v>
+        <v>4.235443</v>
       </c>
       <c r="I23">
-        <v>0.1670053903977991</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J23">
-        <v>0.1670053903977991</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N23">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O23">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P23">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q23">
-        <v>7.475225629638466</v>
+        <v>7.752266857076</v>
       </c>
       <c r="R23">
-        <v>7.475225629638466</v>
+        <v>69.77040171368401</v>
       </c>
       <c r="S23">
-        <v>0.04344367949486861</v>
+        <v>0.04285819213804085</v>
       </c>
       <c r="T23">
-        <v>0.04344367949486861</v>
+        <v>0.05510263782031072</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.3613634884419</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H24">
-        <v>1.3613634884419</v>
+        <v>4.235443</v>
       </c>
       <c r="I24">
-        <v>0.1670053903977991</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J24">
-        <v>0.1670053903977991</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N24">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O24">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P24">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q24">
-        <v>1.060512454711087</v>
+        <v>1.331177616475444</v>
       </c>
       <c r="R24">
-        <v>1.060512454711087</v>
+        <v>11.980598548279</v>
       </c>
       <c r="S24">
-        <v>0.006163367564466824</v>
+        <v>0.007359378502907043</v>
       </c>
       <c r="T24">
-        <v>0.006163367564466824</v>
+        <v>0.009461928933496179</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.3613634884419</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H25">
-        <v>1.3613634884419</v>
+        <v>4.235443</v>
       </c>
       <c r="I25">
-        <v>0.1670053903977991</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J25">
-        <v>0.1670053903977991</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N25">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O25">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P25">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q25">
-        <v>8.310661613336675</v>
+        <v>8.620975981776667</v>
       </c>
       <c r="R25">
-        <v>8.310661613336675</v>
+        <v>51.72585589066001</v>
       </c>
       <c r="S25">
-        <v>0.04829897282144887</v>
+        <v>0.04766082642100637</v>
       </c>
       <c r="T25">
-        <v>0.04829897282144887</v>
+        <v>0.0408515793672091</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.20536030271884</v>
+        <v>1.278373333333333</v>
       </c>
       <c r="H26">
-        <v>1.20536030271884</v>
+        <v>3.83512</v>
       </c>
       <c r="I26">
-        <v>0.1478676853277164</v>
+        <v>0.1526728527558608</v>
       </c>
       <c r="J26">
-        <v>0.1478676853277164</v>
+        <v>0.175706953246507</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N26">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O26">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P26">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q26">
-        <v>0.8073897954325427</v>
+        <v>0.8816218599066667</v>
       </c>
       <c r="R26">
-        <v>0.8073897954325427</v>
+        <v>5.28973115944</v>
       </c>
       <c r="S26">
-        <v>0.004692297629268396</v>
+        <v>0.004874021981130369</v>
       </c>
       <c r="T26">
-        <v>0.004692297629268396</v>
+        <v>0.004177676107435501</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.20536030271884</v>
+        <v>1.278373333333333</v>
       </c>
       <c r="H27">
-        <v>1.20536030271884</v>
+        <v>3.83512</v>
       </c>
       <c r="I27">
-        <v>0.1478676853277164</v>
+        <v>0.1526728527558608</v>
       </c>
       <c r="J27">
-        <v>0.1478676853277164</v>
+        <v>0.175706953246507</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N27">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O27">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P27">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q27">
-        <v>3.544548215854779</v>
+        <v>3.922411592444445</v>
       </c>
       <c r="R27">
-        <v>3.544548215854779</v>
+        <v>35.301704332</v>
       </c>
       <c r="S27">
-        <v>0.02059980852392691</v>
+        <v>0.02168494361362447</v>
       </c>
       <c r="T27">
-        <v>0.02059980852392691</v>
+        <v>0.02788026126362945</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.20536030271884</v>
+        <v>1.278373333333333</v>
       </c>
       <c r="H28">
-        <v>1.20536030271884</v>
+        <v>3.83512</v>
       </c>
       <c r="I28">
-        <v>0.1478676853277164</v>
+        <v>0.1526728527558608</v>
       </c>
       <c r="J28">
-        <v>0.1478676853277164</v>
+        <v>0.175706953246507</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N28">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O28">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P28">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q28">
-        <v>6.175303378342213</v>
+        <v>6.78066175752889</v>
       </c>
       <c r="R28">
-        <v>6.175303378342213</v>
+        <v>61.02595581775999</v>
       </c>
       <c r="S28">
-        <v>0.03588893687550854</v>
+        <v>0.03748670031424203</v>
       </c>
       <c r="T28">
-        <v>0.03588893687550854</v>
+        <v>0.04819652830527979</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.20536030271884</v>
+        <v>1.278373333333333</v>
       </c>
       <c r="H29">
-        <v>1.20536030271884</v>
+        <v>3.83512</v>
       </c>
       <c r="I29">
-        <v>0.1478676853277164</v>
+        <v>0.1526728527558608</v>
       </c>
       <c r="J29">
-        <v>0.1478676853277164</v>
+        <v>0.175706953246507</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N29">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O29">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P29">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q29">
-        <v>6.618614575997713</v>
+        <v>7.01954285984</v>
       </c>
       <c r="R29">
-        <v>6.618614575997713</v>
+        <v>63.17588573856</v>
       </c>
       <c r="S29">
-        <v>0.0384653232672546</v>
+        <v>0.03880734785769594</v>
       </c>
       <c r="T29">
-        <v>0.0384653232672546</v>
+        <v>0.0498944805436952</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.20536030271884</v>
+        <v>1.278373333333333</v>
       </c>
       <c r="H30">
-        <v>1.20536030271884</v>
+        <v>3.83512</v>
       </c>
       <c r="I30">
-        <v>0.1478676853277164</v>
+        <v>0.1526728527558608</v>
       </c>
       <c r="J30">
-        <v>0.1478676853277164</v>
+        <v>0.175706953246507</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N30">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O30">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P30">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q30">
-        <v>0.9389847930406064</v>
+        <v>1.205358188151111</v>
       </c>
       <c r="R30">
-        <v>0.9389847930406064</v>
+        <v>10.84822369336</v>
       </c>
       <c r="S30">
-        <v>0.005457086704871084</v>
+        <v>0.006663789285812336</v>
       </c>
       <c r="T30">
-        <v>0.005457086704871084</v>
+        <v>0.008567612146221745</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.20536030271884</v>
+        <v>1.278373333333333</v>
       </c>
       <c r="H31">
-        <v>1.20536030271884</v>
+        <v>3.83512</v>
       </c>
       <c r="I31">
-        <v>0.1478676853277164</v>
+        <v>0.1526728527558608</v>
       </c>
       <c r="J31">
-        <v>0.1478676853277164</v>
+        <v>0.175706953246507</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N31">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O31">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P31">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q31">
-        <v>7.358315162036797</v>
+        <v>7.806143869066667</v>
       </c>
       <c r="R31">
-        <v>7.358315162036797</v>
+        <v>46.8368632144</v>
       </c>
       <c r="S31">
-        <v>0.04276423232688692</v>
+        <v>0.0431560497033557</v>
       </c>
       <c r="T31">
-        <v>0.04276423232688692</v>
+        <v>0.03699039488024534</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.23080758474426</v>
+        <v>1.2308325</v>
       </c>
       <c r="H32">
-        <v>1.23080758474426</v>
+        <v>2.461665</v>
       </c>
       <c r="I32">
-        <v>0.1509894329765256</v>
+        <v>0.1469951728026461</v>
       </c>
       <c r="J32">
-        <v>0.1509894329765256</v>
+        <v>0.1127817792047088</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N32">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O32">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P32">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q32">
-        <v>0.8244352181019922</v>
+        <v>0.8488356332137501</v>
       </c>
       <c r="R32">
-        <v>0.8244352181019922</v>
+        <v>3.395342532855</v>
       </c>
       <c r="S32">
-        <v>0.004791360308576705</v>
+        <v>0.004692764236912779</v>
       </c>
       <c r="T32">
-        <v>0.004791360308576705</v>
+        <v>0.002681542964759959</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.23080758474426</v>
+        <v>1.2308325</v>
       </c>
       <c r="H33">
-        <v>1.23080758474426</v>
+        <v>2.461665</v>
       </c>
       <c r="I33">
-        <v>0.1509894329765256</v>
+        <v>0.1469951728026461</v>
       </c>
       <c r="J33">
-        <v>0.1509894329765256</v>
+        <v>0.1127817792047088</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N33">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O33">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P33">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q33">
-        <v>3.619379880625969</v>
+        <v>3.776542845875</v>
       </c>
       <c r="R33">
-        <v>3.619379880625969</v>
+        <v>22.65925707525</v>
       </c>
       <c r="S33">
-        <v>0.02103470681616003</v>
+        <v>0.02087851229712481</v>
       </c>
       <c r="T33">
-        <v>0.02103470681616003</v>
+        <v>0.01789562343382538</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.23080758474426</v>
+        <v>1.2308325</v>
       </c>
       <c r="H34">
-        <v>1.23080758474426</v>
+        <v>2.461665</v>
       </c>
       <c r="I34">
-        <v>0.1509894329765256</v>
+        <v>0.1469951728026461</v>
       </c>
       <c r="J34">
-        <v>0.1509894329765256</v>
+        <v>0.1127817792047088</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N34">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O34">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P34">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q34">
-        <v>6.305674924764261</v>
+        <v>6.528498870445</v>
       </c>
       <c r="R34">
-        <v>6.305674924764261</v>
+        <v>39.17099322267</v>
       </c>
       <c r="S34">
-        <v>0.03664661563446846</v>
+        <v>0.03609262479233711</v>
       </c>
       <c r="T34">
-        <v>0.03664661563446846</v>
+        <v>0.03093611330300397</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.23080758474426</v>
+        <v>1.2308325</v>
       </c>
       <c r="H35">
-        <v>1.23080758474426</v>
+        <v>2.461665</v>
       </c>
       <c r="I35">
-        <v>0.1509894329765256</v>
+        <v>0.1469951728026461</v>
       </c>
       <c r="J35">
-        <v>0.1509894329765256</v>
+        <v>0.1127817792047088</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N35">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O35">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P35">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q35">
-        <v>6.758345203722107</v>
+        <v>6.75849633417</v>
       </c>
       <c r="R35">
-        <v>6.758345203722107</v>
+        <v>40.55097800502</v>
       </c>
       <c r="S35">
-        <v>0.03927739408721845</v>
+        <v>0.03736415938645273</v>
       </c>
       <c r="T35">
-        <v>0.03927739408721845</v>
+        <v>0.03202598522278194</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.23080758474426</v>
+        <v>1.2308325</v>
       </c>
       <c r="H36">
-        <v>1.23080758474426</v>
+        <v>2.461665</v>
       </c>
       <c r="I36">
-        <v>0.1509894329765256</v>
+        <v>0.1469951728026461</v>
       </c>
       <c r="J36">
-        <v>0.1509894329765256</v>
+        <v>0.1127817792047088</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N36">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O36">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P36">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q36">
-        <v>0.9588084182190596</v>
+        <v>1.1605326812075</v>
       </c>
       <c r="R36">
-        <v>0.9588084182190596</v>
+        <v>6.963196087245</v>
       </c>
       <c r="S36">
-        <v>0.005572295430513359</v>
+        <v>0.00641597271490562</v>
       </c>
       <c r="T36">
-        <v>0.005572295430513359</v>
+        <v>0.005499330126287822</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.23080758474426</v>
+        <v>1.2308325</v>
       </c>
       <c r="H37">
-        <v>1.23080758474426</v>
+        <v>2.461665</v>
       </c>
       <c r="I37">
-        <v>0.1509894329765256</v>
+        <v>0.1469951728026461</v>
       </c>
       <c r="J37">
-        <v>0.1509894329765256</v>
+        <v>0.1127817792047088</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N37">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O37">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P37">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q37">
-        <v>7.513662173828966</v>
+        <v>7.515844803075001</v>
       </c>
       <c r="R37">
-        <v>7.513662173828966</v>
+        <v>30.0633792123</v>
       </c>
       <c r="S37">
-        <v>0.04366706069958862</v>
+        <v>0.04155113937491308</v>
       </c>
       <c r="T37">
-        <v>0.04366706069958862</v>
+        <v>0.02374318415404972</v>
       </c>
     </row>
   </sheetData>
